--- a/TestFiles/Test files for conflictTimes/SQASignOff-ConflictTimes.xlsx
+++ b/TestFiles/Test files for conflictTimes/SQASignOff-ConflictTimes.xlsx
@@ -16,113 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> classt001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt028</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt029</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> classt030</t>
-  </si>
-  <si>
     <t>SQA Name</t>
   </si>
   <si>
     <t>Date of Signoff</t>
   </si>
   <si>
-    <t>SQA Signoff for class-times test files</t>
-  </si>
-  <si>
-    <t>Alla Salah</t>
-  </si>
-  <si>
     <t>Results</t>
   </si>
   <si>
@@ -130,6 +34,102 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt001</t>
+  </si>
+  <si>
+    <t>SQA Signoff for conflict-times test files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflictt030</t>
+  </si>
+  <si>
+    <t>Jared Cox</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -543,436 +543,412 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>41386</v>
       </c>
     </row>
   </sheetData>
